--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
     <sheet name="设计模式" sheetId="2" r:id="rId2"/>
     <sheet name="数据结构图示" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -191,12 +191,37 @@
     <t>B+树</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>HashTable与ConcurrentHashMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentHashMap进行了锁优化，只对需要锁的数据进行上锁，而hashtable锁住了整个哈希表数据槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/wisgood/article/details/19338693</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.类适配器，通过继承实现，适配器类继承被适配器抽象类或者接口，实现另外一个接口
+2.对象适配器，通过在适配器中引入被适配对象实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/wwwdc1012/article/details/82780560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +243,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,10 +292,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,9 +306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -460,7 +499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,14 +787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="94.75" customWidth="1"/>
     <col min="4" max="4" width="37.75" customWidth="1"/>
   </cols>
@@ -867,9 +906,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -923,6 +968,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -931,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1023,12 +1071,18 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1097,6 +1151,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>https://blog.csdn.net/wwwdc1012/article/details/82780560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile关键字的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证不同不同线程之间共享变量的内存可见性
+原理:java字节码增加了lock前缀指令
+1.将当前处理器缓存行的数据写回到内存
+2.写回内存的操作会导致其他处理器缓存了的该内存地址无效化,保证内存数据可见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile优化经典案例:追加字节优化linkedTransferQueue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,7 +811,7 @@
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="94.75" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -917,11 +932,17 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -979,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>volatile优化经典案例:追加字节优化linkedTransferQueue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java初始化与实例化的区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行次数 初始化执行1次、实例化执行N次
+2.触发机制 
+初始化：Class.forName(),new,main方法的类，通过子类加载父类静态成员导致父类的初始化
+实例化：new,Class.newInstance等
+3.是否执行构造方法 实例化执行，初始化不执行
+4.执行内容
+初始化：为静态成员赋值，执行静态代码块
+实例化：在堆内分配内存空间，执行实例对象初始化，设置引用变量a指向刚分配的内存地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -802,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,10 +960,14 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,6 +244,24 @@
 4.执行内容
 初始化：为静态成员赋值，执行静态代码块
 实例化：在堆内分配内存空间，执行实例对象初始化，设置引用变量a指向刚分配的内存地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm运行异常获取类getStackTrace返回StackTraceElement执行栈帧（方法）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz.getDeclaredConstructor()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz.getDeclaredConstructor()与clazz.getConstructor()的区别
+clazz.getConstructor()只返回制定参数类型访问权限是public的构造器
+clazz.getDeclaredConstructor()返回无访问类型限制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,15 +991,23 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -260,8 +260,8 @@
   </si>
   <si>
     <t>clazz.getDeclaredConstructor()与clazz.getConstructor()的区别
-clazz.getConstructor()只返回制定参数类型访问权限是public的构造器
-clazz.getDeclaredConstructor()返回无访问类型限制</t>
+clazz.getConstructor()无法访问private构造器，无论是否设置setAccessible()
+clazz.getDeclaredConstructor()设置setAccessible()后可以访问private构造器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +836,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -233,6 +233,28 @@
   </si>
   <si>
     <t>java初始化与实例化的区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm运行异常获取类getStackTrace返回StackTraceElement执行栈帧（方法）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz.getDeclaredConstructor()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz.getDeclaredConstructor()与clazz.getConstructor()的区别
+clazz.getConstructor()无法访问private构造器，无论是否设置setAccessible()
+clazz.getDeclaredConstructor()设置setAccessible()后可以访问private构造器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java初始化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -247,21 +269,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RuntimeException</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jvm运行异常获取类getStackTrace返回StackTraceElement执行栈帧（方法）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clazz.getDeclaredConstructor()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clazz.getDeclaredConstructor()与clazz.getConstructor()的区别
-clazz.getConstructor()无法访问private构造器，无论是否设置setAccessible()
-clazz.getDeclaredConstructor()设置setAccessible()后可以访问private构造器</t>
+    <t>1.分配内存空间
+2.初始化对象
+3.赋值给引用变量
+4.初始化时为线程安全，由虚拟机实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重检查锁定，两种方案
+1.基于volatile内存可见性
+2.基于类初始化自带锁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +857,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,7 +1005,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -992,10 +1013,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1003,25 +1024,33 @@
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -1046,7 +1075,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,6 +283,49 @@
     <t>双重检查锁定，两种方案
 1.基于volatile内存可见性
 2.基于类初始化自带锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位或</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制按位或，都为0是才为0，否则位1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制按位与，都为1是才为1，否则为0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号右移位，高位补0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.forName
+class.getgetDeclaredConstructor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过类路径获取Class&lt;?&gt;对象
+2.通过Class对象获取构造函数对象Constructor&lt;?&gt;
+3.通过Constructor.newInstance实例化对象</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +420,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,10 +1103,51 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1257,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -10,13 +10,14 @@
     <sheet name="java" sheetId="1" r:id="rId1"/>
     <sheet name="设计模式" sheetId="2" r:id="rId2"/>
     <sheet name="数据结构图示" sheetId="3" r:id="rId3"/>
+    <sheet name="JNI调用流程" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,6 +327,52 @@
     <t>1.通过类路径获取Class&lt;?&gt;对象
 2.通过Class对象获取构造函数对象Constructor&lt;?&gt;
 3.通过Constructor.newInstance实例化对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify与notifyall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify唤醒一个对象等待线程，即将对象的等待池随机移动一个线程至对象的锁定池参与锁竞争
+notifyall唤醒所有等待线程，即将对象的等待池中所有线程移动至对象的锁定池参与竞争</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程进入等待状态，即进入对象的等待池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>native关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA本地方法适用的情况 
+1.为了使用底层的主机平台的某个特性，而这个特性不能通过JAVA API访问
+2.为了访问一个老的系统或者使用一个已有的库，而这个系统或这个库不是用JAVA编写的
+3.为了加快程序的性能，而将一段时间敏感的代码作为本地方法实现。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言扩展使用，调用由C/C++语言实现并编译的dll,相当于java通其他语言的接口；
+扩展使用步骤：
+1、在Java中声明native()方法，然后编译；
+2、用javah产生一个.h文件；
+3、写一个.cpp文件实现native导出方法，其中需要包含第二步产生的.h文件（注意其中又包含了JDK带的jni.h文件）；
+4、将第三步的.cpp文件编译成动态链接库文件；
+5、在Java中用System.loadLibrary()方法加载第四步产生的动态链接库文件，这个native()方法就可以在Java中被访问了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>javah命令执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\eclipse\eclipseworkspace1\activiti\activiti\target\classes&gt;java -classpath . -jni com.utils.HelloNative</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,6 +643,66 @@
         <a:xfrm>
           <a:off x="0" y="4163784"/>
           <a:ext cx="7458336" cy="4340679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://images2015.cnblogs.com/blog/690102/201607/690102-20160725102547356-2054241629.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6286500" cy="7515225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -901,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1148,6 +1258,52 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1372,4 +1528,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="数据结构图示" sheetId="3" r:id="rId3"/>
     <sheet name="JNI调用流程" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,18 +63,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>java -XX:+PrintCommandLineFlags -version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查看虚拟机默认GC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模板模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设计模式名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建者模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -110,24 +98,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.Mybatis中的SqlSessionFactoryBuilder
-2.java.lang.StringBuilder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂模式和构建者模式的区别：他们都是属于创建类模式，但是侧重点不同，构建者模式更加注重对象的组件类型和装配顺序，在创建对象的过程中，对象组件是已经常见好的；而工厂模式则是创建对象的每个组件，最后返回整体，创建组件是它所关注的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工厂模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察者模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -372,7 +343,124 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E:\eclipse\eclipseworkspace1\activiti\activiti\target\classes&gt;java -classpath . -jni com.utils.HelloNative</t>
+    <t>java -XX:+PrintCommandLineFlags -version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\eclipse\eclipseworkspace1\activiti\activiti\target\classes&gt;javah -classpath . -jni com.utils.HelloNative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建型模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象工厂模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构型模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰器模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA io包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>享元模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为型模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代子模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任链模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释器模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Mybatis中的SqlSessionFactoryBuilder
+2.java.lang.StringBuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂模式和构建者模式的区别：他们都是属于创建类模式，但是侧重点不同，构建者模式更加注重对象的组件类型和装配顺序，在创建对象的过程中，对象组件是已经创建好的；而工厂模式则是创建对象的每个组件，最后返回整体，创建组件是它所关注的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建者模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,10 +1155,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1078,10 +1166,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1089,10 +1177,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1100,10 +1188,10 @@
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1111,10 +1199,10 @@
     <row r="8" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1122,10 +1210,10 @@
     <row r="9" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1133,36 +1221,36 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1170,10 +1258,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1181,10 +1269,10 @@
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1192,10 +1280,10 @@
     <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1203,10 +1291,10 @@
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1214,36 +1302,36 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1251,10 +1339,10 @@
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1262,10 +1350,10 @@
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1273,10 +1361,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1284,23 +1372,23 @@
     <row r="23" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1316,182 +1404,332 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.875" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" customWidth="1"/>
+    <col min="5" max="5" width="50.875" customWidth="1"/>
+    <col min="6" max="6" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1512,15 +1750,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="数据结构图示" sheetId="3" r:id="rId3"/>
     <sheet name="JNI调用流程" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" calcCompleted="0"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -463,12 +463,20 @@
     <t>构建者模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>线程间通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PipedInputStream,PipedOutputStream，PipedWriter,PipedReader主要用于线程间通信，媒介为内存，在使用时，输入与输出必须进行connect，否则会抛出IOException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +504,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,11 +554,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,8 +582,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1099,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,6 +1413,20 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1406,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -469,6 +469,17 @@
   </si>
   <si>
     <t>PipedInputStream,PipedOutputStream，PipedWriter,PipedReader主要用于线程间通信，媒介为内存，在使用时，输入与输出必须进行connect，否则会抛出IOException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFirst()将指定元素插入链表头部
+add(int index,E element)将指定元素插入到指定位置
+add(E element)将指定元素插入到链表末尾
+addLast(E e)将指定元素插入到链表末尾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,6 +1434,17 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="10"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -480,6 +480,50 @@
 add(int index,E element)将指定元素插入到指定位置
 add(E element)将指定元素插入到链表末尾
 addLast(E e)将指定元素插入到链表末尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>final关键字作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>final关键字提高了性能。JVM和Java应用都会缓存final变量。
+final变量可以安全的在多线程环境下进行共享，而不需要额外的同步开销。
+使用final关键字，JVM会对方法、变量及类进行优化。
+对于不可变类，它的对象是只读的，可以在多线程环境下安全的共享，不用额外的同步开销。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.标记在成员变量、方法、类以及本地变量上,一旦我们将某个对象声明为了final的，那么我们将不能再改变这个对象的引用(构造函数内可初始化)，但是可以修改对象引用的某些属性
+2.修饰方法：final所修饰的方法将无法被子类重写，private修改的方法会隐式地使用final;
+3.修饰类：final修饰的类无法被继承
+4.匿名类中的所有变量都必须是final的
+5.final为编译层面限制，转换为字节码时就没有了，不会影响性能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修饰类变量、方法、代码块
+2.static修饰的方法/变量属于类的静态资源，是类实例之间共享的
+3.静态资源是类初始化的时候加载的，而非静态资源是类new的时候加载的
+4.静态方法能不能引用非静态资源（静态方法类初始化时加载，此时没有加载非静态资源）
+5.静态资源的加载顺序是严格按照静态资源的定义顺序来加载的
+6.静态代码块对于定义在它之后的静态变量，可以赋值，但是不能访问
+7.修饰类，匿名内部类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T，E，K，V，？通配符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.？表示不确定的 java 类型
+2.T (type) 表示具体的一个java类型
+3.K V (key value) 分别代表java键值中的Key Value
+4.E (element) 代表Element</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +637,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1132,15 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="94.75" customWidth="1"/>
+    <col min="3" max="3" width="119.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1446,8 +1495,40 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="10"/>
+    <row r="27" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1287,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -1449,7 +1449,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>64</v>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,6 +524,19 @@
 2.T (type) 表示具体的一个java类型
 3.K V (key value) 分别代表java键值中的Key Value
 4.E (element) 代表Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally语句块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不执行场景
+1.代码执行至try之前返回或抛出异常
+2.在try中使用system.exit推出虚拟机
+finally特殊性
+在finally之前返回，在finally中不可改变返回值，但是可以修改返回值对应的引用（与final不同）
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -608,6 +621,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -616,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +665,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1530,6 +1558,14 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
+    <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1543,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -537,6 +537,43 @@
 finally特殊性
 在finally之前返回，在finally中不可改变返回值，但是可以修改返回值对应的引用（与final不同）
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供synchronized关键字不具备的以下功能
+1.可以提供非阻塞获取锁
+2.可以在线程中响应中断解除锁
+3.可以提供在指定时间内获取锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修饰普通方法，锁的是对象实例
+2.修饰静态防范，锁的是当前类对象（Class）
+3.修饰代码块，锁关键字后括号指定的对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractQueuedSynchronizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列同步器，一般以静态内部类继承方式实现，对象需实现lock接口
+需实现三个方法：
+1.getState();获取当前同步状态
+2.setState(int newState);设置当前同步状态
+3.compareSetState(int expect,int update);使用CAS设置当前状态，该方法能够保证设置当前状态的原子性。
+提供的三类模板方法：
+1.独占式获取锁与释放锁
+2.共享式获取锁与释放锁
+3.查询同步队列中的等待线程情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -621,17 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -640,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,10 +691,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,12 +1581,48 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -241,13 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.分配内存空间
-2.初始化对象
-3.赋值给引用变量
-4.初始化时为线程安全，由虚拟机实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟初始化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -574,6 +567,13 @@
 1.独占式获取锁与释放锁
 2.共享式获取锁与释放锁
 3.查询同步队列中的等待线程情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分配内存空间
+2.初始化对象
+3.赋值给引用变量
+4.初始化时为线程安全，由虚拟机实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1413,7 +1413,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1421,10 +1421,10 @@
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1432,36 +1432,36 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1469,10 +1469,10 @@
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1480,10 +1480,10 @@
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1491,10 +1491,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1502,23 +1502,23 @@
     <row r="23" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1526,10 +1526,10 @@
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1537,10 +1537,10 @@
     <row r="26" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1548,23 +1548,23 @@
     <row r="27" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1572,10 +1572,10 @@
     <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1583,10 +1583,10 @@
     <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1594,10 +1594,10 @@
     <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1605,10 +1605,10 @@
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1616,10 +1616,10 @@
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1678,10 +1678,10 @@
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1690,10 +1690,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1711,7 +1711,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1722,7 +1722,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1733,7 +1733,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1743,14 +1743,14 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1759,7 +1759,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1770,7 +1770,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1796,7 +1796,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1807,7 +1807,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1818,7 +1818,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1828,10 +1828,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1842,7 +1842,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1853,7 +1853,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1864,7 +1864,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1875,7 +1875,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1886,7 +1886,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1897,7 +1897,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1908,7 +1908,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1919,7 +1919,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1930,7 +1930,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1941,7 +1941,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,6 +574,18 @@
 2.初始化对象
 3.赋值给引用变量
 4.初始化时为线程安全，由虚拟机实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList与hashMap扩容性能消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ArrayList默认初始化大小10，每次扩容1.5倍
+2.HashMap初始化大小16，每次扩容2倍
+3.在初始化时，如知道数据容量，最好指定初始化值
+原因：ArrayList不支持扩容，扩容时实际上时新建一个数组，将原数组数据copy过去，存在性能消耗
+      HashMap底层为数组加链表（JDK8以前），数组加（链表或红黑树）JDK8以后。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1229,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,6 +1635,17 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -369,10 +369,6 @@
   </si>
   <si>
     <t>装饰器模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA io包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -586,6 +582,33 @@
 3.在初始化时，如知道数据容量，最好指定初始化值
 原因：ArrayList不支持扩容，扩容时实际上时新建一个数组，将原数组数据copy过去，存在性能消耗
       HashMap底层为数组加链表（JDK8以前），数组加（链表或红黑树）JDK8以后。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java8 ::</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ava 8 中我们可以通过 `::` 关键字来访问类的构造方法，对象方法，静态方法
+例子：ArrayList::new，List::stream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA io包
+SpringBoot中Bean定义相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态（运行时）向一个现有的对象添加新的功能，同时又不改变其结构，可代替继承（编译时）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.装饰类和被装饰类可以独立发展，不会相互耦合，装饰模式是继承的一个替代模式，装饰模式可以动态扩展一个实现类的功能。
+2.动态进行装饰，继承为静态特性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1448,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1538,10 +1561,10 @@
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1549,10 +1572,10 @@
     <row r="26" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1560,23 +1583,23 @@
     <row r="27" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1584,10 +1607,10 @@
     <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1595,10 +1618,10 @@
     <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1606,10 +1629,10 @@
     <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1617,10 +1640,10 @@
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1628,10 +1651,10 @@
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1639,13 +1662,24 @@
     <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1658,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1669,13 +1703,14 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.875" customWidth="1"/>
-    <col min="5" max="5" width="50.875" customWidth="1"/>
-    <col min="6" max="6" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="74.875" customWidth="1"/>
+    <col min="5" max="5" width="56.875" customWidth="1"/>
+    <col min="6" max="6" width="50.875" customWidth="1"/>
+    <col min="7" max="7" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,84 +1721,92 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -1771,207 +1814,229 @@
       <c r="C7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1979,11 +2044,12 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -609,6 +609,23 @@
   <si>
     <t>1.装饰类和被装饰类可以独立发展，不会相互耦合，装饰模式是继承的一个替代模式，装饰模式可以动态扩展一个实现类的功能。
 2.动态进行装饰，继承为静态特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.饿汉模式
+2.懒汉模式（实现时加载）
+3.DCL(Double CheckLock)双重加锁模式
+4.静态内部类
+5.枚举单例
+6.容器实现单例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少内存开销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring创建Bean时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1695,7 +1712,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,15 +1799,21 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -537,10 +537,6 @@
 1.可以提供非阻塞获取锁
 2.可以在线程中响应中断解除锁
 3.可以提供在指定时间内获取锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>synchronized</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -626,6 +622,64 @@
   </si>
   <si>
     <t>Spring创建Bean时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue&lt;E&gt;：数组结构有界阻塞队列
+LinkedBlockingQueue&lt;E&gt;：链表结构有界阻塞队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发工具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork/join框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分割-合并
+工作窃取算法（多线程中空闲线程从另一个线程双端队列获取任务）
+ForkJoinTask-&gt;RecursiveAction:没有返回结果的任务/RecursiveTask:有返回结果的任务
+ForkJoinPool执行任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子更新整型：AtomicInteger
+原子更新布尔型：AtomicBoolean
+原子更新长整型：AtomicLong
+原子更新整型数组：AtomicIntegerArray
+原子更新长整型数组：AtomicLongArray
+原子更新引用类型数组：AtomicReferenceArray
+原子更新引用类型：AtomicReference
+原子更新引用类型里的字段：AtomicReferenceFieldUpdater
+原子更新带有标记位的引用类型：AtomicMarkableReference
+原子更新整型的字段的更新器：AtomicIntegerFieldUpdater
+原子更新长整型的字段的更新器：AtomicLongFiledUpdater
+原子更新带有版本号的引用类型：AtomicStampedReference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子操作类(线程安全，比synchronized更高效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.等待多线程完成CountDownLatch,与Thread.join类似，等待其余线程完成后继续执行
+2.内存屏障CycleBarrier,等到所有线程执行到屏障之后，屏障才会打开
+3.控制并发数（信号量）semaphore,控制同时访问特定资源的线程的数量
+4.线程间数据交换（比如双录进行数据校验）,Exchanger</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -710,6 +764,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +808,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1533,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1657,10 +1725,10 @@
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1668,10 +1736,10 @@
     <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1679,10 +1747,10 @@
     <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1690,13 +1758,66 @@
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1711,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1806,13 +1927,13 @@
         <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1838,13 +1959,13 @@
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -635,10 +635,6 @@
   </si>
   <si>
     <t>并发工具类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -676,10 +672,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.事件源 2.事件对象 3.监听对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件源与监听对象解耦合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callable与Runable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callable可以通过Future对象获取返回值，并可抛出异常
+Runable不能获取返回值，不能抛出异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.等待多线程完成CountDownLatch,与Thread.join类似，等待其余线程完成后继续执行
 2.内存屏障CycleBarrier,等到所有线程执行到屏障之后，屏障才会打开
 3.控制并发数（信号量）semaphore,控制同时访问特定资源的线程的数量
 4.线程间数据交换（比如双录进行数据校验）,Exchanger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.newSingleThreadExecutor 单线程线程池
+2.newCachedThreadPool 可缓存线程池，无限大，如果执行新的任务时，上一个任务已结束，则可复用线程，未结束，则新建线程。
+3.newFixedThreadPool 可重用固定个数线程池，消耗内存较小，如果等待队列过多，比较消耗资源。
+4.ScheduledThreadPool 可重用固定个数线程池，可以设置线程延迟执行时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceLoader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK自带类加载器，可以获取接口的所有实现类ServiceLoader&lt;MyInterface&gt; loader=ServiceLoader.load(MyInterface.class);
+(如果所有实现类均被spring托管，可以通过spring获取，getBeanOfType,底层原理均为反射)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1349,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,7 +1758,7 @@
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>111</v>
@@ -1769,10 +1802,10 @@
     <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1791,10 +1824,10 @@
     <row r="38" spans="1:5" ht="162" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1805,19 +1838,43 @@
         <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1833,7 +1890,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1994,17 +2051,16 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
@@ -2078,8 +2134,12 @@
       <c r="C16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D622CB-3D29-4093-978F-8B71FBE338ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -719,7 +720,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,7 +883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="preview"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -937,7 +944,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="preview"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -992,7 +1005,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="preview"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1052,7 +1071,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="https://images2015.cnblogs.com/blog/690102/201607/690102-20160725102547356-2054241629.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://images2015.cnblogs.com/blog/690102/201607/690102-20160725102547356-2054241629.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1138,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,9 +1196,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,6 +1248,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1381,22 +1440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="119.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="119.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1424,7 +1483,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1435,7 +1494,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1446,7 +1505,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -1457,7 +1516,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1468,7 +1527,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
@@ -1479,7 +1538,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -1490,7 +1549,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -1501,7 +1560,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
@@ -1514,7 +1573,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>37</v>
@@ -1527,7 +1586,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>40</v>
@@ -1538,7 +1597,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1549,7 +1608,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>43</v>
@@ -1560,7 +1619,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>45</v>
@@ -1571,7 +1630,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>47</v>
@@ -1582,7 +1641,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>49</v>
@@ -1595,7 +1654,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>51</v>
@@ -1608,7 +1667,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
@@ -1619,7 +1678,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
         <v>57</v>
@@ -1630,7 +1689,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>59</v>
@@ -1641,7 +1700,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>61</v>
@@ -1652,7 +1711,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>63</v>
@@ -1665,7 +1724,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>66</v>
@@ -1676,7 +1735,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>96</v>
@@ -1687,7 +1746,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>98</v>
@@ -1698,7 +1757,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>100</v>
@@ -1711,7 +1770,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>103</v>
@@ -1722,7 +1781,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>105</v>
@@ -1733,7 +1792,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>107</v>
@@ -1744,7 +1803,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>109</v>
@@ -1755,7 +1814,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>132</v>
@@ -1766,7 +1825,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>112</v>
@@ -1777,7 +1836,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>115</v>
@@ -1788,7 +1847,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>117</v>
@@ -1799,7 +1858,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>129</v>
@@ -1810,7 +1869,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>126</v>
@@ -1821,7 +1880,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="168" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
         <v>133</v>
@@ -1832,7 +1891,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>128</v>
@@ -1843,7 +1902,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>136</v>
@@ -1854,7 +1913,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>137</v>
@@ -1865,7 +1924,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>141</v>
@@ -1879,33 +1938,33 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.875" customWidth="1"/>
-    <col min="5" max="5" width="56.875" customWidth="1"/>
-    <col min="6" max="6" width="50.875" customWidth="1"/>
-    <col min="7" max="7" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="74.90625" customWidth="1"/>
+    <col min="5" max="5" width="56.90625" customWidth="1"/>
+    <col min="6" max="6" width="50.90625" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>70</v>
@@ -1953,7 +2012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -1965,7 +2024,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -1977,7 +2036,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -1995,7 +2054,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -2007,7 +2066,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -2027,7 +2086,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
@@ -2039,7 +2098,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
@@ -2051,7 +2110,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2066,7 +2125,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -2078,7 +2137,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2090,7 +2149,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2102,7 +2161,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>81</v>
@@ -2116,7 +2175,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -2128,7 +2187,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -2144,7 +2203,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -2156,7 +2215,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
@@ -2168,7 +2227,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
@@ -2180,7 +2239,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
@@ -2192,7 +2251,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
@@ -2204,7 +2263,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
@@ -2216,7 +2275,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
@@ -2228,7 +2287,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
@@ -2240,7 +2299,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2253,26 +2312,26 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2293,14 +2352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D622CB-3D29-4093-978F-8B71FBE338ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CD5E4-F073-465F-8D1D-38F1448C16C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -714,6 +714,27 @@
   <si>
     <t>JDK自带类加载器，可以获取接口的所有实现类ServiceLoader&lt;MyInterface&gt; loader=ServiceLoader.load(MyInterface.class);
 (如果所有实现类均被spring托管，可以通过spring获取，getBeanOfType,底层原理均为反射)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线程安全
+2.最大容量2^30
+3.默认容量16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止反序列化
+1.只能禁止实现Serializable接口的实现类，不能禁止实现Externalizable接口的实现类
+2.静态变量不能序列化，无论是否被transient关键字修饰
+3.反序列化后类中static型变量的值为当前JVM中对应static变量的值，这个值是JVM中的不是反序列化得出的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1441,17 +1462,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="3" width="119.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="121.90625" customWidth="1"/>
     <col min="4" max="4" width="60.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,7 +1559,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -1934,6 +1955,56 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1941,6 +2012,7 @@
     <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1948,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CD5E4-F073-465F-8D1D-38F1448C16C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B29549-A518-4160-9295-0E741BEE8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -447,10 +447,6 @@
   </si>
   <si>
     <t>工厂模式和构建者模式的区别：他们都是属于创建类模式，但是侧重点不同，构建者模式更加注重对象的组件类型和装配顺序，在创建对象的过程中，对象组件是已经创建好的；而工厂模式则是创建对象的每个组件，最后返回整体，创建组件是它所关注的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建者模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -735,6 +731,18 @@
 1.只能禁止实现Serializable接口的实现类，不能禁止实现Externalizable接口的实现类
 2.静态变量不能序列化，无论是否被transient关键字修饰
 3.反序列化后类中static型变量的值为当前JVM中对应static变量的值，这个值是JVM中的不是反序列化得出的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建者模式/建造者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一部份负责对象的构建分为许多小对象的构建，最后在整合构建的模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1646,7 +1655,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1759,10 +1768,10 @@
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1770,10 +1779,10 @@
     <row r="26" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1781,23 +1790,23 @@
     <row r="27" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1805,10 +1814,10 @@
     <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1816,10 +1825,10 @@
     <row r="30" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1827,10 +1836,10 @@
     <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1838,10 +1847,10 @@
     <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1849,10 +1858,10 @@
     <row r="33" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1860,10 +1869,10 @@
     <row r="34" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1871,10 +1880,10 @@
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1882,10 +1891,10 @@
     <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1893,10 +1902,10 @@
     <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1904,10 +1913,10 @@
     <row r="38" spans="1:5" ht="168" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1915,10 +1924,10 @@
     <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1926,10 +1935,10 @@
     <row r="40" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1937,10 +1946,10 @@
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1948,10 +1957,10 @@
     <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1959,10 +1968,10 @@
     <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1970,10 +1979,10 @@
     <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2018,25 +2027,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.90625" customWidth="1"/>
     <col min="5" max="5" width="56.90625" customWidth="1"/>
-    <col min="6" max="6" width="50.90625" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.90625" customWidth="1"/>
+    <col min="6" max="6" width="38.26953125" customWidth="1"/>
+    <col min="7" max="7" width="50.90625" customWidth="1"/>
+    <col min="8" max="8" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,44 +2057,50 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -2095,8 +2111,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -2107,26 +2124,28 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -2137,8 +2156,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -2147,18 +2167,19 @@
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
@@ -2169,8 +2190,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
@@ -2181,8 +2203,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2192,12 +2215,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="13"/>
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -2208,8 +2232,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2220,8 +2245,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2232,8 +2258,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>81</v>
@@ -2246,8 +2273,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -2258,24 +2286,26 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -2286,8 +2316,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
@@ -2298,8 +2329,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
@@ -2310,8 +2342,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
@@ -2322,8 +2355,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
@@ -2334,8 +2368,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
@@ -2346,8 +2381,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
@@ -2358,8 +2394,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
@@ -2370,8 +2407,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2380,11 +2418,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/javaNote.xlsx
+++ b/java/javaNote.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B29549-A518-4160-9295-0E741BEE8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B012318F-1D38-41B5-874D-5AD6B39BD155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="数据结构图示" sheetId="3" r:id="rId3"/>
     <sheet name="JNI调用流程" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,14 +301,6 @@
   <si>
     <t>notify唤醒一个对象等待线程，即将对象的等待池随机移动一个线程至对象的锁定池参与锁竞争
 notifyall唤醒所有等待线程，即将对象的等待池中所有线程移动至对象的锁定池参与竞争</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程进入等待状态，即进入对象的等待池</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -743,6 +735,41 @@
   </si>
   <si>
     <t>将一部份负责对象的构建分为许多小对象的构建，最后在整合构建的模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java字符串拼接性能分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.+，性能最低，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait/sleep/await</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线程进入等待状态，即进入对象的等待池,线程释放锁，通过notify与notifyall释放锁
+2.sleep线程进入等待状态，不释放锁，到达指定时间线程被唤醒
+3.Condition上调用 await() 方法使线程等待，通过调用signal() 或 signalAll() 方法唤醒
+4.wait一般用于Synchronized中，而await只能用于ReentrantLock锁中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Schedules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个定时任务会单线程串行处理，需使用线程池或者使用@Async开启新的线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML转义字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; &gt; &amp; ' "需进行转义 &amp;lt; &amp;gt; &amp;amp; &amp;apos; &amp;quot;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +904,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1473,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1655,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1730,13 +1758,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1744,23 +1772,23 @@
     <row r="23" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1768,10 +1796,10 @@
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1779,10 +1807,10 @@
     <row r="26" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1790,23 +1818,23 @@
     <row r="27" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1814,10 +1842,10 @@
     <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1825,10 +1853,10 @@
     <row r="30" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1836,10 +1864,10 @@
     <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1847,10 +1875,10 @@
     <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1858,10 +1886,10 @@
     <row r="33" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1869,10 +1897,10 @@
     <row r="34" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1880,10 +1908,10 @@
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1891,10 +1919,10 @@
     <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1902,10 +1930,10 @@
     <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1913,10 +1941,10 @@
     <row r="38" spans="1:5" ht="168" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1924,10 +1952,10 @@
     <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1935,10 +1963,10 @@
     <row r="40" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1946,10 +1974,10 @@
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1957,10 +1985,10 @@
     <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1968,10 +1996,10 @@
     <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1979,32 +2007,44 @@
     <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
@@ -2029,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2051,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
@@ -2078,13 +2118,13 @@
     <row r="2" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2094,10 +2134,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,7 +2157,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -2130,17 +2170,17 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2149,7 +2189,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -2161,20 +2201,20 @@
     <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2183,7 +2223,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
@@ -2196,7 +2236,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -2225,7 +2265,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2238,7 +2278,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2251,7 +2291,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2263,10 +2303,10 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2279,7 +2319,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2292,13 +2332,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2309,7 +2349,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2322,7 +2362,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
@@ -2335,7 +2375,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
@@ -2348,7 +2388,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
@@ -2361,7 +2401,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="3"/>
@@ -2374,7 +2414,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
@@ -2387,7 +2427,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="3"/>
@@ -2400,7 +2440,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
